--- a/заказы/Сочи/2024/02,24/19,02,24 Сочи Ост КИ/Заказ Останкино Сочи на 24.02.xlsx
+++ b/заказы/Сочи/2024/02,24/19,02,24 Сочи Ост КИ/Заказ Останкино Сочи на 24.02.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\19,02,24 Сочи Останкино КИ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\Останкино\ostankino_data\заказы\Сочи\2024\02,24\19,02,24 Сочи Ост КИ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC09F9A9-151F-4765-817A-3CADBD6B7226}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9130A283-0259-45CB-BA29-0494CAA2BB27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$149</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$152</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -1351,7 +1351,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3685,7 +3685,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F149" xr:uid="{6DFAF330-AB3A-4594-A4FB-AC35694A046D}"/>
+  <autoFilter ref="A1:F152" xr:uid="{6DFAF330-AB3A-4594-A4FB-AC35694A046D}"/>
   <pageMargins left="0.23622047244094488" right="0.23622047244094488" top="0.15748031496062992" bottom="0" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="10" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
